--- a/public/Exel.xlsx
+++ b/public/Exel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strix\OneDrive\Desktop\Argo Media\Отчеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Frontend\Argo Media\warehousev4\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB8117-4A02-424D-8E82-BA7A8EF00ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A454DF-57CA-4FD9-A043-057AB05F2F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,11 +165,6 @@
       <name val="JetBrains Mono"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -188,17 +183,6 @@
       <name val="JetBrains Mono"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -207,6 +191,51 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -253,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -506,6 +535,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -532,16 +589,48 @@
     <xf numFmtId="1" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -558,93 +647,69 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -930,8 +995,8 @@
   </sheetPr>
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -944,57 +1009,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="e" vm="1">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1011,83 +1076,83 @@
     </row>
     <row r="5" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="30"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1096,12 +1161,12 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1110,12 +1175,12 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1123,2000 +1188,2000 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:26" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="25" x14ac:dyDescent="0.65">
       <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="25" x14ac:dyDescent="0.65">
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="25" x14ac:dyDescent="0.65">
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A19" s="8">
         <v>6</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A20" s="8">
         <v>7</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A21" s="8">
         <v>8</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A22" s="8">
         <v>9</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A23" s="8">
         <v>10</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A24" s="8">
         <v>11</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A25" s="8">
         <v>12</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A26" s="8">
         <v>13</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A27" s="8">
         <v>14</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A28" s="8">
         <v>15</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A29" s="8">
         <v>16</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A30" s="8">
         <v>17</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="63"/>
     </row>
     <row r="31" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A31" s="8">
         <v>18</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="1:13" ht="25" x14ac:dyDescent="0.65">
       <c r="A32" s="8">
         <v>19</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A33" s="8">
         <v>20</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A34" s="8">
         <v>21</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A35" s="8">
         <v>22</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="36"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A36" s="8">
         <v>23</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="36"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A37" s="8">
         <v>24</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="36"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A38" s="8">
         <v>25</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="36"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A39" s="8">
         <v>26</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="36"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A40" s="8">
         <v>27</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="36"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="63"/>
     </row>
     <row r="41" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A41" s="8">
         <v>28</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="36"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="63"/>
     </row>
     <row r="42" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A42" s="8">
         <v>29</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="36"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="63"/>
     </row>
     <row r="43" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A43" s="8">
         <v>30</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="36"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A44" s="8">
         <v>31</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="36"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="63"/>
     </row>
     <row r="45" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A45" s="8">
         <v>32</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="36"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="63"/>
     </row>
     <row r="46" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A46" s="8">
         <v>33</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="36"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="63"/>
     </row>
     <row r="47" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A47" s="8">
         <v>34</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="36"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="63"/>
     </row>
     <row r="48" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A48" s="8">
         <v>35</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="36"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="63"/>
     </row>
     <row r="49" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A49" s="8">
         <v>36</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="36"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="63"/>
     </row>
     <row r="50" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A50" s="8">
         <v>37</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="36"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="63"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A51" s="8">
         <v>38</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="36"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="63"/>
     </row>
     <row r="52" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A52" s="8">
         <v>39</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="36"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="63"/>
     </row>
     <row r="53" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A53" s="8">
         <v>40</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="36"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="63"/>
     </row>
     <row r="54" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A54" s="8">
         <v>41</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="36"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="63"/>
     </row>
     <row r="55" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A55" s="8">
         <v>42</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="36"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="63"/>
     </row>
     <row r="56" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A56" s="8">
         <v>43</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="36"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="63"/>
     </row>
     <row r="57" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A57" s="8">
         <v>44</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="36"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="63"/>
     </row>
     <row r="58" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A58" s="8">
         <v>45</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="36"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="63"/>
     </row>
     <row r="59" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A59" s="8">
         <v>46</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="36"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="63"/>
     </row>
     <row r="60" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A60" s="8">
         <v>47</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="36"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="63"/>
     </row>
     <row r="61" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A61" s="8">
         <v>48</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="36"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="63"/>
     </row>
     <row r="62" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A62" s="8">
         <v>49</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="36"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="63"/>
     </row>
     <row r="63" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A63" s="8">
         <v>50</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="36"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="63"/>
     </row>
     <row r="64" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A64" s="8">
         <v>51</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="36"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="63"/>
     </row>
     <row r="65" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A65" s="8">
         <v>52</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="36"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="63"/>
     </row>
     <row r="66" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A66" s="8">
         <v>53</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="36"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="63"/>
     </row>
     <row r="67" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A67" s="8">
         <v>54</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="36"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="63"/>
     </row>
     <row r="68" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A68" s="8">
         <v>55</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="36"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="63"/>
     </row>
     <row r="69" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A69" s="8">
         <v>56</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="36"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="63"/>
     </row>
     <row r="70" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A70" s="8">
         <v>57</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="36"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="63"/>
     </row>
     <row r="71" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A71" s="8">
         <v>58</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="36"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="63"/>
     </row>
     <row r="72" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A72" s="8">
         <v>59</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="36"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="63"/>
     </row>
     <row r="73" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A73" s="8">
         <v>60</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="36"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="63"/>
     </row>
     <row r="74" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A74" s="8">
         <v>61</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="36"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="63"/>
     </row>
     <row r="75" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A75" s="8">
         <v>62</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="36"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="63"/>
     </row>
     <row r="76" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A76" s="8">
         <v>63</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="36"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="63"/>
     </row>
     <row r="77" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A77" s="8">
         <v>64</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="36"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="63"/>
     </row>
     <row r="78" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A78" s="8">
         <v>65</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="36"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="63"/>
     </row>
     <row r="79" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A79" s="8">
         <v>66</v>
       </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="36"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="63"/>
     </row>
     <row r="80" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A80" s="8">
         <v>67</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="36"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="63"/>
     </row>
     <row r="81" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A81" s="8">
         <v>68</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="36"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="63"/>
     </row>
     <row r="82" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A82" s="8">
         <v>69</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="36"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="63"/>
     </row>
     <row r="83" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A83" s="8">
         <v>70</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="36"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="63"/>
     </row>
     <row r="84" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A84" s="8">
         <v>71</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="36"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="63"/>
     </row>
     <row r="85" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A85" s="8">
         <v>72</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="36"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="63"/>
     </row>
     <row r="86" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A86" s="8">
         <v>73</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="36"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="63"/>
     </row>
     <row r="87" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A87" s="8">
         <v>74</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="36"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="63"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A88" s="8">
         <v>75</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="36"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="63"/>
     </row>
     <row r="89" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A89" s="8">
         <v>76</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="36"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="63"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A90" s="8">
         <v>77</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="36"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="63"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A91" s="8">
         <v>78</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="36"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="63"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A92" s="8">
         <v>79</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="36"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="63"/>
     </row>
     <row r="93" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A93" s="8">
         <v>80</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="36"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="63"/>
     </row>
     <row r="94" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A94" s="8">
         <v>81</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="36"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="63"/>
     </row>
     <row r="95" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A95" s="8">
         <v>82</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="36"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="63"/>
     </row>
     <row r="96" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A96" s="8">
         <v>83</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="36"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="63"/>
     </row>
     <row r="97" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A97" s="8">
         <v>84</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="36"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="63"/>
     </row>
     <row r="98" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A98" s="8">
         <v>85</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="36"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="63"/>
     </row>
     <row r="99" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A99" s="8">
         <v>86</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="36"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="63"/>
     </row>
     <row r="100" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A100" s="8">
         <v>87</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="36"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="63"/>
     </row>
     <row r="101" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A101" s="8">
         <v>88</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="36"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="63"/>
     </row>
     <row r="102" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A102" s="8">
         <v>89</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="36"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="63"/>
     </row>
     <row r="103" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A103" s="8">
         <v>90</v>
       </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="36"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="63"/>
     </row>
     <row r="104" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A104" s="8">
         <v>91</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="36"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="63"/>
     </row>
     <row r="105" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A105" s="8">
         <v>92</v>
       </c>
-      <c r="B105" s="36"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="36"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="63"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A106" s="8">
         <v>93</v>
       </c>
-      <c r="B106" s="36"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="36"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="63"/>
     </row>
     <row r="107" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A107" s="8">
         <v>94</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="36"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="63"/>
     </row>
     <row r="108" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A108" s="8">
         <v>95</v>
       </c>
-      <c r="B108" s="36"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="36"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="63"/>
     </row>
     <row r="109" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A109" s="8">
         <v>96</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="36"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="63"/>
     </row>
     <row r="110" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A110" s="8">
         <v>97</v>
       </c>
-      <c r="B110" s="36"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="36"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="63"/>
     </row>
     <row r="111" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A111" s="8">
         <v>98</v>
       </c>
-      <c r="B111" s="36"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="36"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="63"/>
     </row>
     <row r="112" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A112" s="8">
         <v>99</v>
       </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="36"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="63"/>
     </row>
     <row r="113" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A113" s="8">
         <v>100</v>
       </c>
-      <c r="B113" s="36"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="36"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="63"/>
     </row>
     <row r="114" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A114" s="8">
         <v>101</v>
       </c>
-      <c r="B114" s="36"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="36"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="63"/>
     </row>
     <row r="115" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A115" s="8">
         <v>102</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="36"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="63"/>
     </row>
     <row r="116" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A116" s="8">
         <v>103</v>
       </c>
-      <c r="B116" s="36"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="36"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="63"/>
     </row>
     <row r="117" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A117" s="8">
         <v>104</v>
       </c>
-      <c r="B117" s="36"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="36"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="63"/>
     </row>
     <row r="118" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A118" s="8">
         <v>105</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="36"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="63"/>
     </row>
     <row r="119" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A119" s="8">
         <v>106</v>
       </c>
-      <c r="B119" s="36"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="36"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="63"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A120" s="8">
         <v>107</v>
       </c>
-      <c r="B120" s="36"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="36"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="63"/>
     </row>
     <row r="121" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A121" s="8">
         <v>108</v>
       </c>
-      <c r="B121" s="36"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="36"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="63"/>
     </row>
     <row r="122" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A122" s="8">
         <v>109</v>
       </c>
-      <c r="B122" s="36"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="36"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="63"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A123" s="8">
         <v>110</v>
       </c>
-      <c r="B123" s="36"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="36"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="63"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A124" s="8">
         <v>111</v>
       </c>
-      <c r="B124" s="36"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="36"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="63"/>
     </row>
     <row r="125" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A125" s="8">
         <v>112</v>
       </c>
-      <c r="B125" s="36"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="36"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="63"/>
     </row>
     <row r="126" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A126" s="8">
         <v>113</v>
       </c>
-      <c r="B126" s="36"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="36"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="63"/>
     </row>
     <row r="127" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A127" s="8">
         <v>114</v>
       </c>
-      <c r="B127" s="36"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="36"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="63"/>
     </row>
     <row r="128" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A128" s="8">
         <v>115</v>
       </c>
-      <c r="B128" s="36"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="36"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="63"/>
     </row>
     <row r="129" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A129" s="8">
         <v>116</v>
       </c>
-      <c r="B129" s="36"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="36"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="63"/>
     </row>
     <row r="130" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A130" s="8">
         <v>117</v>
       </c>
-      <c r="B130" s="36"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="36"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="63"/>
     </row>
     <row r="131" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A131" s="8">
         <v>118</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="36"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="63"/>
     </row>
     <row r="132" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A132" s="8">
         <v>119</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="36"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="63"/>
     </row>
     <row r="133" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A133" s="8">
         <v>120</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="36"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="63"/>
     </row>
     <row r="134" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A134" s="8">
         <v>121</v>
       </c>
-      <c r="B134" s="36"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="36"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="63"/>
     </row>
     <row r="135" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A135" s="8">
         <v>122</v>
       </c>
-      <c r="B135" s="36"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="36"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="63"/>
     </row>
     <row r="136" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A136" s="8">
         <v>123</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="36"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="63"/>
     </row>
     <row r="137" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A137" s="8">
         <v>124</v>
       </c>
-      <c r="B137" s="36"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="36"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="63"/>
     </row>
     <row r="138" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A138" s="8">
         <v>125</v>
       </c>
-      <c r="B138" s="36"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="36"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="63"/>
     </row>
     <row r="139" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A139" s="8">
         <v>126</v>
       </c>
-      <c r="B139" s="36"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="36"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="63"/>
     </row>
     <row r="140" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A140" s="8">
         <v>127</v>
       </c>
-      <c r="B140" s="36"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="36"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="63"/>
     </row>
     <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A141" s="8">
         <v>128</v>
       </c>
-      <c r="B141" s="36"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="36"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="63"/>
     </row>
     <row r="142" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A142" s="8">
         <v>129</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="36"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="63"/>
     </row>
     <row r="143" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A143" s="8">
         <v>130</v>
       </c>
-      <c r="B143" s="36"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="36"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="63"/>
     </row>
     <row r="144" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A144" s="8">
         <v>131</v>
       </c>
-      <c r="B144" s="36"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="36"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="63"/>
     </row>
     <row r="145" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A145" s="8">
         <v>132</v>
       </c>
-      <c r="B145" s="36"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="36"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="63"/>
     </row>
     <row r="146" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A146" s="8">
         <v>133</v>
       </c>
-      <c r="B146" s="36"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="45"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="36"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="63"/>
     </row>
     <row r="147" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A147" s="8">
         <v>134</v>
       </c>
-      <c r="B147" s="36"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="36"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="63"/>
     </row>
     <row r="148" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A148" s="8">
         <v>135</v>
       </c>
-      <c r="B148" s="36"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="36"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="63"/>
     </row>
     <row r="149" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A149" s="8">
         <v>136</v>
       </c>
-      <c r="B149" s="36"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="36"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="63"/>
     </row>
     <row r="150" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A150" s="8">
         <v>137</v>
       </c>
-      <c r="B150" s="36"/>
-      <c r="C150" s="42"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="36"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="57"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="63"/>
     </row>
     <row r="151" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A151" s="8">
         <v>138</v>
       </c>
-      <c r="B151" s="36"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="36"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="63"/>
     </row>
     <row r="152" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A152" s="8">
         <v>139</v>
       </c>
-      <c r="B152" s="36"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="36"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="63"/>
     </row>
     <row r="153" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A153" s="8">
         <v>140</v>
       </c>
-      <c r="B153" s="36"/>
-      <c r="C153" s="42"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="36"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="63"/>
     </row>
     <row r="154" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A154" s="8">
         <v>141</v>
       </c>
-      <c r="B154" s="36"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="36"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="57"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="63"/>
     </row>
     <row r="155" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A155" s="8">
         <v>142</v>
       </c>
-      <c r="B155" s="36"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="45"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="36"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="57"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A156" s="8">
         <v>143</v>
       </c>
-      <c r="B156" s="36"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="36"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="63"/>
     </row>
     <row r="157" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A157" s="8">
         <v>144</v>
       </c>
-      <c r="B157" s="36"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="45"/>
-      <c r="E157" s="44"/>
-      <c r="F157" s="36"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="55"/>
+      <c r="F157" s="63"/>
     </row>
     <row r="158" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A158" s="8">
         <v>145</v>
       </c>
-      <c r="B158" s="36"/>
-      <c r="C158" s="42"/>
-      <c r="D158" s="45"/>
-      <c r="E158" s="44"/>
-      <c r="F158" s="36"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="63"/>
     </row>
     <row r="159" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A159" s="8">
         <v>146</v>
       </c>
-      <c r="B159" s="36"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="45"/>
-      <c r="E159" s="44"/>
-      <c r="F159" s="36"/>
+      <c r="B159" s="56"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="63"/>
     </row>
     <row r="160" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A160" s="8">
         <v>147</v>
       </c>
-      <c r="B160" s="36"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="36"/>
+      <c r="B160" s="56"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="63"/>
     </row>
     <row r="161" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A161" s="8">
         <v>148</v>
       </c>
-      <c r="B161" s="36"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="45"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="36"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="55"/>
+      <c r="F161" s="63"/>
     </row>
     <row r="162" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A162" s="8">
         <v>149</v>
       </c>
-      <c r="B162" s="36"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="45"/>
-      <c r="E162" s="44"/>
-      <c r="F162" s="36"/>
+      <c r="B162" s="56"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="63"/>
     </row>
     <row r="163" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A163" s="8">
         <v>150</v>
       </c>
-      <c r="B163" s="36"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="45"/>
-      <c r="E163" s="44"/>
-      <c r="F163" s="36"/>
+      <c r="B163" s="56"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="63"/>
     </row>
     <row r="164" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A164" s="8">
         <v>151</v>
       </c>
-      <c r="B164" s="36"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="44"/>
-      <c r="F164" s="36"/>
+      <c r="B164" s="56"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="57"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="63"/>
     </row>
     <row r="165" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A165" s="8">
         <v>152</v>
       </c>
-      <c r="B165" s="36"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="36"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="55"/>
+      <c r="F165" s="63"/>
     </row>
     <row r="166" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A166" s="8">
         <v>153</v>
       </c>
-      <c r="B166" s="36"/>
-      <c r="C166" s="42"/>
-      <c r="D166" s="45"/>
-      <c r="E166" s="44"/>
-      <c r="F166" s="36"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="63"/>
     </row>
     <row r="167" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A167" s="8">
         <v>154</v>
       </c>
-      <c r="B167" s="36"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="45"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="36"/>
+      <c r="B167" s="56"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="63"/>
     </row>
     <row r="168" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A168" s="8">
         <v>155</v>
       </c>
-      <c r="B168" s="36"/>
-      <c r="C168" s="42"/>
-      <c r="D168" s="45"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="36"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="63"/>
     </row>
     <row r="169" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A169" s="8">
         <v>156</v>
       </c>
-      <c r="B169" s="36"/>
-      <c r="C169" s="42"/>
-      <c r="D169" s="45"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="36"/>
+      <c r="B169" s="56"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="63"/>
     </row>
     <row r="170" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A170" s="8">
         <v>157</v>
       </c>
-      <c r="B170" s="36"/>
-      <c r="C170" s="42"/>
-      <c r="D170" s="45"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="36"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="63"/>
     </row>
     <row r="171" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A171" s="8">
         <v>158</v>
       </c>
-      <c r="B171" s="36"/>
-      <c r="C171" s="42"/>
-      <c r="D171" s="45"/>
-      <c r="E171" s="44"/>
-      <c r="F171" s="36"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="63"/>
     </row>
     <row r="172" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A172" s="8">
         <v>159</v>
       </c>
-      <c r="B172" s="36"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="44"/>
-      <c r="F172" s="36"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="63"/>
     </row>
     <row r="173" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A173" s="8">
         <v>160</v>
       </c>
-      <c r="B173" s="36"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="45"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="36"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="55"/>
+      <c r="F173" s="63"/>
     </row>
     <row r="174" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A174" s="8">
         <v>161</v>
       </c>
-      <c r="B174" s="36"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="45"/>
-      <c r="E174" s="44"/>
-      <c r="F174" s="36"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="63"/>
     </row>
     <row r="175" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A175" s="8">
         <v>162</v>
       </c>
-      <c r="B175" s="36"/>
-      <c r="C175" s="42"/>
-      <c r="D175" s="45"/>
-      <c r="E175" s="44"/>
-      <c r="F175" s="36"/>
+      <c r="B175" s="56"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="63"/>
     </row>
     <row r="176" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A176" s="8">
         <v>163</v>
       </c>
-      <c r="B176" s="36"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="45"/>
-      <c r="E176" s="44"/>
-      <c r="F176" s="36"/>
+      <c r="B176" s="56"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="63"/>
     </row>
     <row r="177" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A177" s="8">
         <v>164</v>
       </c>
-      <c r="B177" s="36"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="45"/>
-      <c r="E177" s="44"/>
-      <c r="F177" s="36"/>
+      <c r="B177" s="56"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="63"/>
     </row>
     <row r="178" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A178" s="8">
         <v>165</v>
       </c>
-      <c r="B178" s="36"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="45"/>
-      <c r="E178" s="44"/>
-      <c r="F178" s="36"/>
+      <c r="B178" s="56"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="63"/>
     </row>
     <row r="179" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A179" s="8">
         <v>166</v>
       </c>
-      <c r="B179" s="36"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="45"/>
-      <c r="E179" s="44"/>
-      <c r="F179" s="36"/>
+      <c r="B179" s="56"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="63"/>
     </row>
     <row r="180" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A180" s="8">
         <v>167</v>
       </c>
-      <c r="B180" s="36"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="45"/>
-      <c r="E180" s="44"/>
-      <c r="F180" s="36"/>
+      <c r="B180" s="56"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="63"/>
     </row>
     <row r="181" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A181" s="8">
         <v>168</v>
       </c>
-      <c r="B181" s="36"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="45"/>
-      <c r="E181" s="44"/>
-      <c r="F181" s="36"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="63"/>
     </row>
     <row r="182" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A182" s="8">
         <v>169</v>
       </c>
-      <c r="B182" s="36"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="45"/>
-      <c r="E182" s="44"/>
-      <c r="F182" s="36"/>
+      <c r="B182" s="56"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="63"/>
     </row>
     <row r="183" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A183" s="8">
         <v>170</v>
       </c>
-      <c r="B183" s="36"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="45"/>
-      <c r="E183" s="44"/>
-      <c r="F183" s="36"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="63"/>
     </row>
     <row r="184" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A184" s="8">
         <v>171</v>
       </c>
-      <c r="B184" s="36"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="45"/>
-      <c r="E184" s="44"/>
-      <c r="F184" s="36"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="63"/>
     </row>
     <row r="185" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A185" s="8">
         <v>172</v>
       </c>
-      <c r="B185" s="36"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="45"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="36"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="57"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="63"/>
     </row>
     <row r="186" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A186" s="8">
         <v>173</v>
       </c>
-      <c r="B186" s="36"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="45"/>
-      <c r="E186" s="44"/>
-      <c r="F186" s="36"/>
+      <c r="B186" s="56"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="63"/>
     </row>
     <row r="187" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A187" s="8">
         <v>174</v>
       </c>
-      <c r="B187" s="36"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="45"/>
-      <c r="E187" s="44"/>
-      <c r="F187" s="36"/>
+      <c r="B187" s="56"/>
+      <c r="C187" s="53"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="63"/>
     </row>
     <row r="188" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A188" s="8">
         <v>175</v>
       </c>
-      <c r="B188" s="36"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="45"/>
-      <c r="E188" s="44"/>
-      <c r="F188" s="36"/>
+      <c r="B188" s="56"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="63"/>
     </row>
     <row r="189" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A189" s="8">
         <v>176</v>
       </c>
-      <c r="B189" s="36"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="45"/>
-      <c r="E189" s="44"/>
-      <c r="F189" s="36"/>
+      <c r="B189" s="56"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="63"/>
     </row>
     <row r="190" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A190" s="8">
         <v>177</v>
       </c>
-      <c r="B190" s="36"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="45"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="36"/>
+      <c r="B190" s="56"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="63"/>
     </row>
     <row r="191" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A191" s="8">
         <v>178</v>
       </c>
-      <c r="B191" s="36"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="45"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="36"/>
+      <c r="B191" s="56"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="63"/>
     </row>
     <row r="192" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A192" s="8">
         <v>179</v>
       </c>
-      <c r="B192" s="36"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="44"/>
-      <c r="F192" s="36"/>
+      <c r="B192" s="56"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="63"/>
     </row>
     <row r="193" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A193" s="8">
         <v>180</v>
       </c>
-      <c r="B193" s="36"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="45"/>
-      <c r="E193" s="44"/>
-      <c r="F193" s="36"/>
+      <c r="B193" s="56"/>
+      <c r="C193" s="53"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="63"/>
     </row>
     <row r="194" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A194" s="8">
         <v>181</v>
       </c>
-      <c r="B194" s="36"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="45"/>
-      <c r="E194" s="44"/>
-      <c r="F194" s="36"/>
+      <c r="B194" s="56"/>
+      <c r="C194" s="53"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="63"/>
     </row>
     <row r="195" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A195" s="8">
         <v>182</v>
       </c>
-      <c r="B195" s="36"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="45"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="36"/>
+      <c r="B195" s="56"/>
+      <c r="C195" s="53"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="63"/>
     </row>
     <row r="196" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A196" s="8">
         <v>183</v>
       </c>
-      <c r="B196" s="36"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="45"/>
-      <c r="E196" s="44"/>
-      <c r="F196" s="36"/>
+      <c r="B196" s="56"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="63"/>
     </row>
     <row r="197" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A197" s="8">
         <v>184</v>
       </c>
-      <c r="B197" s="36"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="44"/>
-      <c r="F197" s="36"/>
+      <c r="B197" s="56"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="63"/>
     </row>
     <row r="198" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A198" s="8">
         <v>185</v>
       </c>
-      <c r="B198" s="36"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="45"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="36"/>
+      <c r="B198" s="56"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="63"/>
     </row>
     <row r="199" spans="1:6" ht="25" x14ac:dyDescent="0.65">
       <c r="A199" s="8">
         <v>186</v>
       </c>
-      <c r="B199" s="36"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="44"/>
-      <c r="F199" s="36"/>
+      <c r="B199" s="56"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="9">
